--- a/src/data/materials.xlsx
+++ b/src/data/materials.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iModelHub\gwgrouping\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A9D55C-DFE1-4CAE-B704-D0FEBAC01CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3363560A-2956-44A0-A39F-EAE56F59915B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="24135" windowHeight="23400"/>
+    <workbookView xWindow="15555" yWindow="180" windowWidth="14565" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="materials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -68,12 +80,42 @@
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>Steel, welded pipe</t>
+  </si>
+  <si>
+    <t>[24,25,26,30,31,32,33,34,35,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,105,107,109,111,112,113,114,115,116,118,119,120,123,124,125,126,127,128,129,131,132,133,134,136,137,138,139,140,143,144,146,147,148,149,151,152,165,166,167,168,169,172,173,174,175,178,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,243,244,245,247,248,249,250,251,252,253,254,255,256,260,261,262,263,264,265,266,267,268,269,270,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,290,291,292,293,296,297,298,299,301,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,370,371,373,375,377,379,381,382,383,384,386,387,388,389,391,393,394,395,396,397,398,400,401,403,404,405,406,408,409,410,411,412,413,414,415,416,417,426,427,428,429,430,431,432,434,436,438,440,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,506,507,508,511,512,513,514,515,517,518,519,520,522,525,526,527,528,529,531,533,534,535,536,539,540,543,544,547,548,549,550,551,552,554]</t>
+  </si>
+  <si>
+    <t>Concrete RC40/50 with 15% PFA cement</t>
+  </si>
+  <si>
+    <t>[9,10,16,17,18,19,20,21,22,23,378,385,390,392,399,402,422,423,424,425,433,435,437,439,441,516,523,524,530,538,542,546]</t>
+  </si>
+  <si>
+    <t>Concrete RC40/50 with CEM I cement</t>
+  </si>
+  <si>
+    <t>[11,12,13,14,15,27,28,29,122,130,135,141,145,150,160,161,162,163,164,170,176,177,179,257]</t>
+  </si>
+  <si>
+    <t>Concrete RC35/45 with 14% limestone cement</t>
+  </si>
+  <si>
+    <t>[106,108,110,117,121,242,259,271,374,376,521,532,537]</t>
+  </si>
+  <si>
+    <t>Concrete RC35/45 with CEM I cement</t>
+  </si>
+  <si>
+    <t>[0,155,288,418]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,15 +949,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -957,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="0">CHAR(34) &amp; A3 &amp; CHAR(34) &amp; ": {" &amp; CHAR(34) &amp; A$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34) &amp;A3 &amp;CHAR(34) &amp; "," &amp; CHAR(34) &amp;B$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34) &amp; B3 &amp;CHAR(34) &amp; "," &amp;CHAR(34) &amp; C$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34)  &amp; C3 &amp; CHAR(34) &amp; "},"</f>
+        <f t="shared" ref="D3:D12" si="0">CHAR(34) &amp; A3 &amp; CHAR(34) &amp; ": {" &amp; CHAR(34) &amp; A$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34) &amp;A3 &amp;CHAR(34) &amp; "," &amp; CHAR(34) &amp;B$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34) &amp; B3 &amp;CHAR(34) &amp; "," &amp;CHAR(34) &amp; C$1 &amp;CHAR(34) &amp; ":" &amp;CHAR(34)  &amp; C3 &amp; CHAR(34) &amp; "},"</f>
         <v>"Clay, Brick": {"name":"Clay, Brick","materialGwp":"9193","rows":"[102,103,104,105,106,107,108,109,115,205,206,207,422,435,437,438,455,573,574,575,576,577,578,672,673,900,902,903,906]"},</v>
       </c>
     </row>
@@ -1019,6 +1064,81 @@
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>"Concrete GEN 2 with CEM I cement": {"name":"Concrete GEN 2 with CEM I cement","materialGwp":"249","rows":"[537]"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>13973496</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Steel, welded pipe": {"name":"Steel, welded pipe","materialGwp":"13973496","rows":"[24,25,26,30,31,32,33,34,35,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,105,107,109,111,112,113,114,115,116,118,119,120,123,124,125,126,127,128,129,131,132,133,134,136,137,138,139,140,143,144,146,147,148,149,151,152,165,166,167,168,169,172,173,174,175,178,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,243,244,245,247,248,249,250,251,252,253,254,255,256,260,261,262,263,264,265,266,267,268,269,270,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,290,291,292,293,296,297,298,299,301,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,370,371,373,375,377,379,381,382,383,384,386,387,388,389,391,393,394,395,396,397,398,400,401,403,404,405,406,408,409,410,411,412,413,414,415,416,417,426,427,428,429,430,431,432,434,436,438,440,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,506,507,508,511,512,513,514,515,517,518,519,520,522,525,526,527,528,529,531,533,534,535,536,539,540,543,544,547,548,549,550,551,552,554]"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>124241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Concrete RC40/50 with 15% PFA cement": {"name":"Concrete RC40/50 with 15% PFA cement","materialGwp":"124241","rows":"[9,10,16,17,18,19,20,21,22,23,378,385,390,392,399,402,422,423,424,425,433,435,437,439,441,516,523,524,530,538,542,546]"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>113232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Concrete RC40/50 with CEM I cement": {"name":"Concrete RC40/50 with CEM I cement","materialGwp":"113232","rows":"[11,12,13,14,15,27,28,29,122,130,135,141,145,150,160,161,162,163,164,170,176,177,179,257]"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>25918</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Concrete RC35/45 with 14% limestone cement": {"name":"Concrete RC35/45 with 14% limestone cement","materialGwp":"25918","rows":"[106,108,110,117,121,242,259,271,374,376,521,532,537]"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>11992</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Concrete RC35/45 with CEM I cement": {"name":"Concrete RC35/45 with CEM I cement","materialGwp":"11992","rows":"[0,155,288,418]"},</v>
       </c>
     </row>
   </sheetData>
